--- a/data/trans_dic/P1429-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1429-Clase-trans_dic.xlsx
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.00314916050465458</v>
+        <v>0.002120726083933638</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
@@ -717,31 +717,31 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.002278667580701427</v>
+        <v>0.002302756598500004</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01848297189672642</v>
+        <v>0.01881719556822347</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.005942195311518864</v>
+        <v>0.006129223113957333</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.00918146207817435</v>
+        <v>0.009576046398778345</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01875712607597918</v>
+        <v>0.01761434791251336</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01125118081767096</v>
+        <v>0.01086352072806566</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.003676327316167689</v>
+        <v>0.002724254576978203</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.005659108510857708</v>
+        <v>0.005680240591190218</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01154851685323348</v>
+        <v>0.0117479687950726</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02161269541958711</v>
+        <v>0.02057201794725962</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01348794053880806</v>
+        <v>0.01204507093634483</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01761447517795497</v>
+        <v>0.01570303921394714</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01624600415176243</v>
+        <v>0.0160704190243109</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06065715451585546</v>
+        <v>0.05889558813010316</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0411607137450013</v>
+        <v>0.04242681147589635</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04373134733029375</v>
+        <v>0.04571989208905259</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04242596106890795</v>
+        <v>0.04126138164328751</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03044070892465936</v>
+        <v>0.03137325208967696</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01819367435949367</v>
+        <v>0.01925313010499194</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02146811904782999</v>
+        <v>0.02266650368066844</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02412733326305879</v>
+        <v>0.02482243215490335</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.01394907872549386</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.03176074817072298</v>
+        <v>0.03176074817072299</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.01413380991911005</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00220229589778285</v>
+        <v>0.002204223921090354</v>
       </c>
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="inlineStr"/>
@@ -852,28 +852,28 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.008187690451368202</v>
+        <v>0.008917173090612693</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.003131664561657068</v>
+        <v>0.003081067291177002</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.003271376535339445</v>
+        <v>0.003364210300693884</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02148963091286923</v>
+        <v>0.02031340712633133</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.006880279355717476</v>
+        <v>0.007401409455026453</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.001456836312429374</v>
+        <v>0.001389672846203664</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.002411444900247985</v>
+        <v>0.001654546245000648</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.00972207397985753</v>
+        <v>0.01018318271544964</v>
       </c>
     </row>
     <row r="9">
@@ -884,36 +884,36 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01941471013954418</v>
+        <v>0.0224573072107859</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.008488442699961808</v>
+        <v>0.006903485484323514</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0424919207805673</v>
+        <v>0.04145941942035537</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03020365371435484</v>
+        <v>0.0300558224618887</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03283735115626722</v>
+        <v>0.03560695140704945</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04735556622746592</v>
+        <v>0.04831307211777634</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0269310597562688</v>
+        <v>0.02534693968739608</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01253117259679666</v>
+        <v>0.01353618308339581</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01758961580329456</v>
+        <v>0.01733015190378002</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02260332916486445</v>
+        <v>0.02301314423148596</v>
       </c>
     </row>
     <row r="10">
@@ -972,40 +972,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.003192144695394316</v>
+        <v>0.003320582280235409</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001913754213237335</v>
+        <v>0.001911077267279709</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.004414221463082139</v>
+        <v>0.004578822644282745</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02025505615388143</v>
+        <v>0.01957388173672307</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01031083272982674</v>
+        <v>0.008006693828040392</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0227796125803216</v>
+        <v>0.02107238110801287</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05107488676316561</v>
+        <v>0.0496442779253083</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.009428040973957779</v>
+        <v>0.009718540796381587</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.004513794094325038</v>
+        <v>0.004084652115134703</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.009031744005583162</v>
+        <v>0.009669041778683954</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01950499961863286</v>
+        <v>0.019873244341279</v>
       </c>
     </row>
     <row r="12">
@@ -1016,40 +1016,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02454873209473741</v>
+        <v>0.02368603011357141</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02147328331057721</v>
+        <v>0.01782382930605352</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01850976094414868</v>
+        <v>0.0185698416421729</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02386649780768416</v>
+        <v>0.02342625100631338</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08849239455985196</v>
+        <v>0.08936589357944068</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05187419610828636</v>
+        <v>0.05383569612078704</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1151198851396406</v>
+        <v>0.1098693366752084</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1414480250307081</v>
+        <v>0.1356467900045253</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0314550309695763</v>
+        <v>0.03031099127450723</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02218250737128459</v>
+        <v>0.02057798168380253</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03178744648158384</v>
+        <v>0.03308681992381315</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04768951932918261</v>
+        <v>0.04622430193770807</v>
       </c>
     </row>
     <row r="13">
@@ -1085,7 +1085,7 @@
         <v>0.02062515547371891</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.03234374244102355</v>
+        <v>0.03234374244102354</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.02137695065875709</v>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.008614836775180101</v>
+        <v>0.00853930692041552</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
@@ -1117,31 +1117,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.008411503649505726</v>
+        <v>0.008111863383129355</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02147962393540475</v>
+        <v>0.02134420775063788</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.009323987991164944</v>
+        <v>0.008403877117874617</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01263634179219063</v>
+        <v>0.01241878211054185</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02446732668284515</v>
+        <v>0.02428102904008492</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01602111857520679</v>
+        <v>0.01569130545459613</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.004401967907860026</v>
+        <v>0.004257740820132483</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.005718401124933979</v>
+        <v>0.005928797188002964</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01723873878637689</v>
+        <v>0.01674456553891234</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02158123979689292</v>
+        <v>0.02223729288635268</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.005998285573448301</v>
+        <v>0.006765836386694615</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.00721260780607092</v>
+        <v>0.006624498767227635</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0261457679224132</v>
+        <v>0.02779624993271463</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04847056591438529</v>
+        <v>0.04953033569933755</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0283474830903697</v>
+        <v>0.027489404352827</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0326449962067417</v>
+        <v>0.03295216547474455</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04281538895904465</v>
+        <v>0.04203875022446311</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02846965839980202</v>
+        <v>0.02856804459578781</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01242400845676496</v>
+        <v>0.01196834874485853</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01480262976878282</v>
+        <v>0.01476633774251473</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02975835049545558</v>
+        <v>0.0289915294389837</v>
       </c>
     </row>
     <row r="16">
@@ -1244,40 +1244,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.002869922767412893</v>
+        <v>0.002974033142457401</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002754167101332615</v>
+        <v>0.002639424270169221</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.001309827389608538</v>
+        <v>0.001257360987378941</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02217465814185758</v>
+        <v>0.02357023620643239</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04116709617002427</v>
+        <v>0.03933344328219784</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01765975083018103</v>
+        <v>0.01709636060960346</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05063608088180802</v>
+        <v>0.05015372283805385</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01837912431264761</v>
+        <v>0.01635291251275272</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02487668687381305</v>
+        <v>0.02448821430332738</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01209118929927564</v>
+        <v>0.01265074728668907</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03153448101374267</v>
+        <v>0.03202779712652272</v>
       </c>
     </row>
     <row r="18">
@@ -1288,40 +1288,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02683862098362377</v>
+        <v>0.02917722314748401</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0114761844295206</v>
+        <v>0.01059821326520548</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01537524190159971</v>
+        <v>0.01589711270037211</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01165577826552234</v>
+        <v>0.01207437537261121</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05418984391884487</v>
+        <v>0.05465347173197791</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07599716920612709</v>
+        <v>0.07331598543415485</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04258285680073127</v>
+        <v>0.04246609594348498</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.07516134918807998</v>
+        <v>0.07519173816317798</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03927834635815163</v>
+        <v>0.03928751120802251</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04486327972177758</v>
+        <v>0.04515408894936469</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02778051285266379</v>
+        <v>0.02741297502977138</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04763536579486184</v>
+        <v>0.04669827553821002</v>
       </c>
     </row>
     <row r="19">
@@ -1357,7 +1357,7 @@
         <v>0.05660424942708727</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.06107290607024082</v>
+        <v>0.0610729060702408</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.04782898039359771</v>
@@ -1386,28 +1386,28 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.04569121772627638</v>
+        <v>0.04792819551889217</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04971935573985364</v>
+        <v>0.05004459975783895</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.04436381245673809</v>
+        <v>0.04309255019196694</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.04965967330428653</v>
+        <v>0.05009672516774</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03764747263294183</v>
+        <v>0.03832343737884475</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.03957111444486588</v>
+        <v>0.03982580861606316</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.03538163493122825</v>
+        <v>0.03388505159549092</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.03865439496527847</v>
+        <v>0.03806423494882626</v>
       </c>
     </row>
     <row r="21">
@@ -1421,31 +1421,31 @@
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.01164507346289472</v>
+        <v>0.01240556642225398</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.07262410971574022</v>
+        <v>0.07405650968486661</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.08019376150613179</v>
+        <v>0.07954846838373336</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.07295661223157687</v>
+        <v>0.07489751184002312</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.07520106039844561</v>
+        <v>0.07589058893698035</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.06052409257544</v>
+        <v>0.06063090667368563</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.06557928039640049</v>
+        <v>0.06511219377646058</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.05883298533464272</v>
+        <v>0.05835499821427799</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05888852949078468</v>
+        <v>0.05871003996931774</v>
       </c>
     </row>
     <row r="22">
@@ -1469,7 +1469,7 @@
         <v>0.003476940496109741</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.008359850425646673</v>
+        <v>0.008359850425646674</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.04300945696517162</v>
@@ -1504,40 +1504,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.007294311913824708</v>
+        <v>0.007256485554620313</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.000618945498981195</v>
+        <v>0.0006030756469485315</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.001813440262599058</v>
+        <v>0.001827830620190365</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.005866992943767275</v>
+        <v>0.005969127361673801</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03650334483844006</v>
+        <v>0.03596087081071127</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.034289714118751</v>
+        <v>0.03357363394698193</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02827833032547693</v>
+        <v>0.02794601464356208</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04268584297071402</v>
+        <v>0.0422329264124674</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02294156821615463</v>
+        <v>0.02282029163217928</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01772805239146663</v>
+        <v>0.01824847158833099</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01623202252915507</v>
+        <v>0.01612937363591518</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02550272778727766</v>
+        <v>0.02542469764441283</v>
       </c>
     </row>
     <row r="24">
@@ -1548,40 +1548,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01435532688955227</v>
+        <v>0.01447028441275106</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.004469194613415878</v>
+        <v>0.004395881832043299</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.005743399648553257</v>
+        <v>0.006366669430594068</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01278961658099467</v>
+        <v>0.01251322056348417</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05061646399676461</v>
+        <v>0.05004236919157448</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04731459523842707</v>
+        <v>0.04770465021475664</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.04105576848373977</v>
+        <v>0.04195637510400124</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.05326109760259173</v>
+        <v>0.0531575077406584</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03069208984815133</v>
+        <v>0.03078179814695846</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.0251659150376244</v>
+        <v>0.02539089653872523</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02325543653098533</v>
+        <v>0.02274544561166869</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.03183921332234373</v>
+        <v>0.0322124250428692</v>
       </c>
     </row>
     <row r="25">
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1492</v>
+        <v>1005</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
@@ -1863,31 +1863,31 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1251</v>
+        <v>1264</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5668</v>
+        <v>5771</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1869</v>
+        <v>1927</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3186</v>
+        <v>3323</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9135</v>
+        <v>8578</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>8781</v>
+        <v>8479</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2760</v>
+        <v>2045</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>4392</v>
+        <v>4409</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>11963</v>
+        <v>12169</v>
       </c>
     </row>
     <row r="7">
@@ -1898,40 +1898,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10240</v>
+        <v>9747</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5884</v>
+        <v>5254</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7558</v>
+        <v>6738</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8917</v>
+        <v>8821</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>18602</v>
+        <v>18062</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>12943</v>
+        <v>13341</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>15177</v>
+        <v>15867</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>20661</v>
+        <v>20094</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>23758</v>
+        <v>24485</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>13657</v>
+        <v>14453</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>16662</v>
+        <v>17593</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>24993</v>
+        <v>25713</v>
       </c>
     </row>
     <row r="8">
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="inlineStr"/>
@@ -2042,28 +2042,28 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3045</v>
+        <v>3316</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1059</v>
+        <v>1041</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1218</v>
+        <v>1252</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>9064</v>
+        <v>8568</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>5083</v>
+        <v>5468</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1103</v>
+        <v>1052</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1807</v>
+        <v>1240</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>8794</v>
+        <v>9211</v>
       </c>
     </row>
     <row r="11">
@@ -2074,36 +2074,36 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7124</v>
+        <v>8240</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>4097</v>
+        <v>3332</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>15801</v>
+        <v>15417</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>10209</v>
+        <v>10159</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12224</v>
+        <v>13256</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>19973</v>
+        <v>20377</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>19897</v>
+        <v>18726</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>9484</v>
+        <v>10244</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>13183</v>
+        <v>12989</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>20444</v>
+        <v>20815</v>
       </c>
     </row>
     <row r="12">
@@ -2206,40 +2206,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1731</v>
+        <v>1801</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2078</v>
+        <v>2155</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3398</v>
+        <v>3284</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2682</v>
+        <v>2083</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3784</v>
+        <v>3501</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>9576</v>
+        <v>9308</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6696</v>
+        <v>6902</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>4015</v>
+        <v>3633</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>6214</v>
+        <v>6653</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>12839</v>
+        <v>13081</v>
       </c>
     </row>
     <row r="15">
@@ -2250,40 +2250,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13315</v>
+        <v>12847</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13516</v>
+        <v>11219</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9661</v>
+        <v>9692</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11235</v>
+        <v>11028</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>14847</v>
+        <v>14994</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>13494</v>
+        <v>14004</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>19124</v>
+        <v>18252</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>26521</v>
+        <v>25433</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>22338</v>
+        <v>21526</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>19732</v>
+        <v>18305</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>21871</v>
+        <v>22765</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>31391</v>
+        <v>30427</v>
       </c>
     </row>
     <row r="16">
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10668</v>
+        <v>10575</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
@@ -2395,31 +2395,31 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>9513</v>
+        <v>9174</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>15343</v>
+        <v>15246</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7130</v>
+        <v>6427</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>10436</v>
+        <v>10256</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>20952</v>
+        <v>20793</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>31283</v>
+        <v>30639</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>8468</v>
+        <v>8191</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>11297</v>
+        <v>11712</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>34259</v>
+        <v>33277</v>
       </c>
     </row>
     <row r="19">
@@ -2430,40 +2430,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>26725</v>
+        <v>27537</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>6952</v>
+        <v>7842</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8292</v>
+        <v>7616</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>29570</v>
+        <v>31437</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>34622</v>
+        <v>35379</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>21678</v>
+        <v>21022</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>26961</v>
+        <v>27214</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>36665</v>
+        <v>36000</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>55590</v>
+        <v>55783</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>23900</v>
+        <v>23024</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>29243</v>
+        <v>29171</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>59139</v>
+        <v>57615</v>
       </c>
     </row>
     <row r="20">
@@ -2566,40 +2566,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1006</v>
+        <v>1043</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1710</v>
+        <v>1638</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>741</v>
+        <v>711</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>12612</v>
+        <v>13406</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>31297</v>
+        <v>29903</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>13037</v>
+        <v>12621</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>41864</v>
+        <v>41466</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>16896</v>
+        <v>15033</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>31614</v>
+        <v>31121</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>16431</v>
+        <v>17192</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>43907</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="23">
@@ -2610,40 +2610,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>9408</v>
+        <v>10228</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>5860</v>
+        <v>5411</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9544</v>
+        <v>9867</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>6592</v>
+        <v>6829</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>30821</v>
+        <v>31084</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>57777</v>
+        <v>55738</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>31437</v>
+        <v>31350</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>62141</v>
+        <v>62166</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>36109</v>
+        <v>36117</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>57014</v>
+        <v>57384</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>37752</v>
+        <v>37253</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>66325</v>
+        <v>65020</v>
       </c>
     </row>
     <row r="24">
@@ -2752,28 +2752,28 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>57057</v>
+        <v>59851</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>55101</v>
+        <v>55462</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>48003</v>
+        <v>46627</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>41796</v>
+        <v>42163</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>58239</v>
+        <v>59285</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>54415</v>
+        <v>54765</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>48443</v>
+        <v>46394</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>41703</v>
+        <v>41066</v>
       </c>
     </row>
     <row r="27">
@@ -2787,31 +2787,31 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>2763</v>
+        <v>2943</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>90690</v>
+        <v>92479</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>88874</v>
+        <v>88159</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>78941</v>
+        <v>81041</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>63292</v>
+        <v>63872</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>93628</v>
+        <v>93794</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>90180</v>
+        <v>89537</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>80552</v>
+        <v>79898</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>63533</v>
+        <v>63340</v>
       </c>
     </row>
     <row r="28">
@@ -2914,40 +2914,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>23854</v>
+        <v>23730</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2117</v>
+        <v>2063</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>6140</v>
+        <v>6189</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>20160</v>
+        <v>20511</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>123313</v>
+        <v>121480</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>121585</v>
+        <v>119046</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>99868</v>
+        <v>98694</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>154566</v>
+        <v>152926</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>152523</v>
+        <v>151716</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>123506</v>
+        <v>127132</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>112282</v>
+        <v>111572</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>179976</v>
+        <v>179425</v>
       </c>
     </row>
     <row r="31">
@@ -2958,40 +2958,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>46945</v>
+        <v>47321</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>15289</v>
+        <v>15038</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>19446</v>
+        <v>21556</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>43947</v>
+        <v>42997</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>170989</v>
+        <v>169049</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>167768</v>
+        <v>169151</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>144992</v>
+        <v>148173</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>192860</v>
+        <v>192485</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>204051</v>
+        <v>204647</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>175324</v>
+        <v>176891</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>160865</v>
+        <v>157337</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>224693</v>
+        <v>227327</v>
       </c>
     </row>
     <row r="32">
